--- a/upload/data10.xlsx
+++ b/upload/data10.xlsx
@@ -411,7 +411,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
